--- a/Hisaab_Khitab.xlsx
+++ b/Hisaab_Khitab.xlsx
@@ -33,7 +33,7 @@
     <t>Jhuria</t>
   </si>
   <si>
-    <t>Last updated on 10-07-2015</t>
+    <t>Last updated on 10-07-2014</t>
   </si>
 </sst>
 </file>
